--- a/data/trans_dic/P78_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P78_2023-Estudios-trans_dic.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.9210158048464829</v>
+        <v>0.921015804846483</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.3400565853601546</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.4934101115208112</v>
+        <v>0.4934101115208113</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8696293798553394</v>
+        <v>0.8697228514028433</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3054618951500201</v>
+        <v>0.3087138905798794</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.46247683592268</v>
+        <v>0.4586559818761046</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9536648455421445</v>
+        <v>0.953220158106443</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3728342637902908</v>
+        <v>0.3756693723017084</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5258796313920091</v>
+        <v>0.529340332829201</v>
       </c>
     </row>
     <row r="7">
@@ -622,7 +622,7 @@
         <v>0.9398721210866127</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.8389949771007614</v>
+        <v>0.8389949771007615</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.8875619925819449</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.920134502004151</v>
+        <v>0.9194823803795604</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.823375597432319</v>
+        <v>0.8209418416898168</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8751067264553214</v>
+        <v>0.8751567508639695</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9539538601807371</v>
+        <v>0.9536962229643736</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8549988946927131</v>
+        <v>0.8541520727103481</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8986944647574822</v>
+        <v>0.8981169863012086</v>
       </c>
     </row>
     <row r="10">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.9722725287758399</v>
+        <v>0.9722725287758401</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.9496258018732402</v>
+        <v>0.9496258018732401</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.9605327708724558</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.9469048822853786</v>
+        <v>0.9473366745669037</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.9297995219981344</v>
+        <v>0.9301639122811299</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.9439411519728708</v>
+        <v>0.9447617320150943</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.986684167088907</v>
+        <v>0.9874264510901043</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9645267285230079</v>
+        <v>0.9654401459573348</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9716543217843515</v>
+        <v>0.9721361284361042</v>
       </c>
     </row>
     <row r="13">
@@ -732,10 +732,10 @@
         <v>0.945867837944554</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.7673762093175487</v>
+        <v>0.7673762093175485</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.8478361243711384</v>
+        <v>0.8478361243711385</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.9306028332586952</v>
+        <v>0.9301822197197716</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.7534534911798458</v>
+        <v>0.7523836347522527</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8381884958950638</v>
+        <v>0.8376856924354474</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9561114785504931</v>
+        <v>0.9567858305202752</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.7798951038048955</v>
+        <v>0.7799736584989009</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8575621060491345</v>
+        <v>0.8578369068925008</v>
       </c>
     </row>
     <row r="16">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>168048</v>
+        <v>168066</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>164591</v>
+        <v>166343</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>338564</v>
+        <v>335766</v>
       </c>
     </row>
     <row r="7">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>184287</v>
+        <v>184201</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>200892</v>
+        <v>202420</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>384979</v>
+        <v>387512</v>
       </c>
     </row>
     <row r="8">
@@ -982,13 +982,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1471322</v>
+        <v>1470279</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1418073</v>
+        <v>1413882</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>2906488</v>
+        <v>2906655</v>
       </c>
     </row>
     <row r="11">
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>1525400</v>
+        <v>1524988</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>1472537</v>
+        <v>1471079</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>2984830</v>
+        <v>2982912</v>
       </c>
     </row>
     <row r="12">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>516034</v>
+        <v>516269</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>545402</v>
+        <v>545616</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1068116</v>
+        <v>1069044</v>
       </c>
     </row>
     <row r="15">
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>537712</v>
+        <v>538117</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>565772</v>
+        <v>566308</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1099474</v>
+        <v>1100020</v>
       </c>
     </row>
     <row r="16">
@@ -1126,13 +1126,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>2175041</v>
+        <v>2174058</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>2145589</v>
+        <v>2142543</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>4345933</v>
+        <v>4343326</v>
       </c>
     </row>
     <row r="19">
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>2234661</v>
+        <v>2236237</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>2220886</v>
+        <v>2221110</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>4446383</v>
+        <v>4447808</v>
       </c>
     </row>
     <row r="20">
